--- a/uStar/PartList.xlsx
+++ b/uStar/PartList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PartList" localSheetId="0">Sheet1!$A$3:$E$33</definedName>
+    <definedName name="PartList" localSheetId="0">Sheet1!$A$3:$E$36</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
   <si>
     <t>Part</t>
   </si>
@@ -61,36 +61,6 @@
     <t>Library</t>
   </si>
   <si>
-    <t>1WR</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PINHD-2X3</t>
-  </si>
-  <si>
-    <t>2X03</t>
-  </si>
-  <si>
-    <t>pinhead</t>
-  </si>
-  <si>
-    <t>ADC1</t>
-  </si>
-  <si>
-    <t>1,6/0,9</t>
-  </si>
-  <si>
-    <t>wirepad</t>
-  </si>
-  <si>
-    <t>ADC2</t>
-  </si>
-  <si>
-    <t>ADC3</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -145,30 +115,6 @@
     <t>diode</t>
   </si>
   <si>
-    <t>DP0</t>
-  </si>
-  <si>
-    <t>DP1</t>
-  </si>
-  <si>
-    <t>DP2</t>
-  </si>
-  <si>
-    <t>EXT-GND</t>
-  </si>
-  <si>
-    <t>MOUNT-PAD-ROUND3.3</t>
-  </si>
-  <si>
-    <t>3,3-PAD</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>EXT-VCC</t>
-  </si>
-  <si>
     <t>FTDI</t>
   </si>
   <si>
@@ -187,30 +133,6 @@
     <t>con-jst2</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>MOUNT-PAD-SQUARE3.3</t>
-  </si>
-  <si>
-    <t>3,3-PAD-SQUARE</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
     <t>IC1</t>
   </si>
   <si>
@@ -223,18 +145,6 @@
     <t>burr-brown</t>
   </si>
   <si>
-    <t>PAD1</t>
-  </si>
-  <si>
-    <t>PAD2</t>
-  </si>
-  <si>
-    <t>PAD3</t>
-  </si>
-  <si>
-    <t>PAD4</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -274,21 +184,9 @@
     <t>R5</t>
   </si>
   <si>
-    <t>U$1</t>
-  </si>
-  <si>
     <t>App-Board 1.2/1.3</t>
   </si>
   <si>
-    <t>APP_CORE</t>
-  </si>
-  <si>
-    <t>APPCORE_RECEIVER</t>
-  </si>
-  <si>
-    <t>LearningByMaking2</t>
-  </si>
-  <si>
     <t>U$2</t>
   </si>
   <si>
@@ -349,9 +247,6 @@
     <t>con-coax</t>
   </si>
   <si>
-    <t>Pins</t>
-  </si>
-  <si>
     <t>Parts</t>
   </si>
   <si>
@@ -376,9 +271,6 @@
     <t>https://www.pololu.com/product/2122</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/593</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-search/en?keywords=SM06B-SSR-H-TB</t>
   </si>
   <si>
@@ -410,6 +302,51 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/AVX/TAJT106K016YNJ/?qs=sGAEpiMZZMsh%2b1woXyUXj79YBYWZHSQENWnLBjmYxSY%3d</t>
+  </si>
+  <si>
+    <t>1X05</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/116</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Jumper Pins</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>LbyM</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/Search/ProductDetail.aspx?R=10-89-7061virtualkey53810000virtualkey538-10-89-7061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U$1      </t>
+  </si>
+  <si>
+    <t>Left Side</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/Search/ProductDetail.aspx?R=929870-01-17-10virtualkey51750000virtualkey517-929870-01-17-10</t>
+  </si>
+  <si>
+    <t>Right Side</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Amphenol/132134/?qs=b8dDPpdgesvQEpS4IQp3aA%3D%3D&amp;gclid=CjwKEAjwsr-6BRCLvrj785rbhTsSJADjUxako7XH-PFJoy9I3SD1JA1CFUn54cUpYkjveKH5OfLvjRoCYbDw_wcB</t>
+  </si>
+  <si>
+    <t>Daisy Chain Jumpers</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Thin-Film/PNM0603E5002BST1/?qs=sGAEpiMZZMu61qfTUdNhGwisekDOKsiwOwvnx%2fkXQzc%3d</t>
   </si>
 </sst>
 </file>
@@ -802,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5"/>
     </row>
@@ -841,30 +778,30 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>1.72</v>
@@ -872,22 +809,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
       </c>
       <c r="G4">
         <v>1.95</v>
@@ -895,22 +832,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="G5">
         <v>0.38</v>
@@ -918,22 +855,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>0.15</v>
@@ -941,22 +878,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>1.5</v>
@@ -964,22 +901,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>49.95</v>
@@ -987,22 +924,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="G9">
         <v>3.95</v>
@@ -1010,22 +947,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="G10">
         <v>5.95</v>
@@ -1033,22 +970,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="G11">
         <v>5.95</v>
@@ -1056,22 +993,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>0.3</v>
@@ -1079,22 +1016,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <v>0.3</v>
@@ -1102,22 +1039,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -1125,22 +1062,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -1148,22 +1085,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G16">
         <v>0.28999999999999998</v>
@@ -1171,22 +1108,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="G17">
         <v>0.28000000000000003</v>
@@ -1194,22 +1131,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="G18">
         <v>0.25</v>
@@ -1217,22 +1154,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G19">
         <v>0.28999999999999998</v>
@@ -1240,22 +1177,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="G20">
         <v>1.79</v>
@@ -1263,382 +1200,146 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G21">
         <v>22.95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="F23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="1">
-        <f>SUM(G3:G21)</f>
-        <v>98.15000000000002</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22">
+        <f>1.5/8</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23">
+        <v>0.54</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24">
+        <v>2.58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" t="s">
-        <v>41</v>
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="F26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="1">
+        <f>SUM(G3:G25)</f>
+        <v>104.03750000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +1347,7 @@
     <sortCondition ref="E1:E41"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
